--- a/imageCreationExcel/back/0901-1/0901-1_8.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_8.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,32 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5726481893614026</v>
+        <v>0.5374600329004944</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.054062780884473</v>
+        <v>4.7524104172979</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>23.08672046647823</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_S_gamma0.57_contrast1.1_equalization23.0.jpg</t>
+          <t>1_C_gamma0.54_equalization4.8.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +530,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.147740776342122</v>
+        <v>0.7305529661191175</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5328162447415379</v>
+        <v>26.55256787042739</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6.807422146777149</v>
+        <v>1.064134945282061</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_C_contrast1.1_gamma0.53_equalization6.8.jpg</t>
+          <t>2_B_gamma0.73_brightness27.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -570,24 +572,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.195092645602685</v>
+        <v>0.8758092934960779</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11.01105345017007</v>
+        <v>0.8432994921496075</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -600,11 +602,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_C_contrast1.2_equalization11.0.jpg</t>
+          <t>3_3_sharpness0.88_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -614,16 +616,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7426964544695019</v>
+        <v>0.5171898817926615</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -631,7 +633,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.255050873480926</v>
+        <v>12.15612484148272</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -648,7 +650,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_gamma0.74_equalization5.3.jpg</t>
+          <t>4_0_sharpness0.52_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -658,41 +660,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5389135524601187</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0.9136172801274356</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F6" t="n">
-        <v>0.690287388281313</v>
+        <v>18.08079084011226</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1.021898120067268</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_S_brightness0.91_gamma0.69.jpg</t>
+          <t>5_9_sharpness0.54_brightness18.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -702,39 +702,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.094586162422419</v>
+        <v>22.78347218899412</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9733348796666961</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0.8665878330505441</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H7" t="n">
-        <v>31.67439374019278</v>
+        <v>0.6009462230963966</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_P_contrast1.1_gamma0.87_equalization32.0.jpg</t>
+          <t>6_3_brightness23.0_contrast0.97_gamma0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -744,39 +744,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3352595208393108</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.034550819840021</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>11.72495387216967</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6727189532399671</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H8" t="n">
-        <v>0.9624448545603754</v>
+        <v>12.61276883551176</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_J_brightness12.0_sharpness0.67_contrast0.96.jpg</t>
+          <t>7_3_sharpness0.34_contrast1.0_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -795,32 +795,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8698192798871447</v>
+        <v>0.634453193763991</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>24.78168655636863</v>
+        <v>0.9753371233735769</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.173882556591496</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_3_gamma0.87_equalization25.0.jpg</t>
+          <t>8_T_gamma0.63_contrast0.98_sharpness0.17.jpg</t>
         </is>
       </c>
     </row>
@@ -830,24 +828,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01893864580723337</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>14.21790336532385</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F10" t="n">
-        <v>0.7816755524083627</v>
+        <v>19.62266317511963</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -855,14 +853,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9032085779903299</v>
+        <v>1.195429503165689</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_S_brightness14.0_gamma0.78_contrast0.9.jpg</t>
+          <t>9_C_sharpness0.019_brightness20.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -872,41 +870,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7626706978767896</v>
+        <v>1.0076749754614</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>19.49062860114024</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0.6335448579425356</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0.9617173076754492</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_0_gamma0.76_sharpness0.63.jpg</t>
+          <t>10_J_contrast1.0_brightness19.0_sharpness0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -916,24 +912,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8710059095467398</v>
+        <v>1.064099347238052</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.204888844213359</v>
+        <v>0.9855063399008029</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -946,11 +942,11 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_9_gamma0.87_brightness0.2.jpg</t>
+          <t>11_7_contrast1.1_sharpness0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -960,24 +956,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.569047389239744</v>
+        <v>0.6385464360777126</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.120299589027149</v>
+        <v>26.06455456808236</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -994,7 +990,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_Q_sharpness0.57_contrast1.1.jpg</t>
+          <t>12_1_gamma0.64_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1004,41 +1000,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8226742742435909</v>
+        <v>0.5024042583840316</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25.45902058423702</v>
+        <v>0.9052078379299344</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>30.22113177955345</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_0_gamma0.82_brightness25.0.jpg</t>
+          <t>13_1_sharpness0.5_contrast0.91_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1048,24 +1042,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8624927793403728</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0.5805399884995837</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F15" t="n">
-        <v>0.3127301668606894</v>
+        <v>0.6256157501931353</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1073,14 +1067,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10.85373008548303</v>
+        <v>27.3640580370696</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_J_gamma0.58_sharpness0.31_equalization11.0.jpg</t>
+          <t>14_P_sharpness0.86_gamma0.63_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1084,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1099,7 +1093,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2168210521915834</v>
+        <v>0.8284865368985062</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1107,7 +1101,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>22.33467013509198</v>
+        <v>31.70595133818046</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1124,7 +1118,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_3_sharpness0.22_equalization22.0.jpg</t>
+          <t>15_Q_sharpness0.83_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,24 +1128,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.017495266988328</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>5.83973226097386</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F17" t="n">
-        <v>0.5153613588537831</v>
+        <v>10.97401933815248</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1164,11 +1158,11 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_S_brightness5.8_gamma0.52.jpg</t>
+          <t>16_T_contrast1.0_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1178,41 +1172,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9012878407940814</v>
+        <v>7.311480378459408</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.133103947787383</v>
+        <v>0.7128193502377089</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1.162305395404069</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_P_sharpness0.9_equalization6.1.jpg</t>
+          <t>17_3_brightness7.3_gamma0.71_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1214,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1231,30 +1223,32 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.00352407012899</v>
+        <v>1.132402259164034</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5700879095927259</v>
+        <v>4.344429043047917</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9379072296630688</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_2_contrast1.0_sharpness0.57_gamma0.94.jpg</t>
+          <t>18_B_contrast1.1_brightness4.3.jpg</t>
         </is>
       </c>
     </row>
@@ -1264,41 +1258,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.105070322457386</v>
+        <v>15.9884638203123</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>30.44767552198673</v>
+        <v>0.9033932527060839</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9585238183773284</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_contrast1.1_equalization30.0.jpg</t>
+          <t>19_3_brightness16.0_gamma0.9_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -1308,16 +1300,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.531016147413231</v>
+        <v>29.04614145078408</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1325,7 +1317,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.03696853231138</v>
+        <v>0.8723293886111365</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1342,7 +1334,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_J_gamma0.53_contrast1.0.jpg</t>
+          <t>20_9_brightness29.0_contrast0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1352,39 +1344,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.038531272502039</v>
+        <v>28.92906839725935</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9087573744079219</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0.9534840952275995</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H22" t="n">
-        <v>8.385258767468649</v>
+        <v>0.4543744066342035</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_T_gamma1.0_sharpness0.95_equalization8.4.jpg</t>
+          <t>21_0_brightness29.0_contrast0.91_sharpness0.45.jpg</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1386,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9550100233557327</v>
+        <v>24.25989910945872</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1411,22 +1403,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.7912542435489915</v>
+        <v>0.05969314851841157</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10.23062048228065</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_1_contrast0.96_sharpness0.79_equalization10.0.jpg</t>
+          <t>22_7_brightness24.0_sharpness0.06.jpg</t>
         </is>
       </c>
     </row>
@@ -1436,39 +1430,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29.49603696505339</v>
+        <v>0.6103012186008464</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9565237729673371</v>
+        <v>0.4578091546512851</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.130843735749441</v>
+        <v>9.925424968474696</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_Q_brightness29.0_gamma0.96_contrast1.1.jpg</t>
+          <t>23_2_gamma0.61_sharpness0.46_equalization9.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1478,39 +1472,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>7.751009396837107</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.94128830340591</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>1.05687185564384</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10.71451116042027</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H25" t="n">
-        <v>0.9282096753855552</v>
+        <v>0.7674759928398864</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_E_gamma1.1_brightness11.0_contrast0.93.jpg</t>
+          <t>24_S_brightness7.8_contrast0.94_gamma0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -1520,41 +1514,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>21.52223275892196</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0.2684875437256528</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F26" t="n">
-        <v>1.081723458781953</v>
+        <v>0.02988897440529437</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.896546837399975</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_T_sharpness0.27_contrast1.1.jpg</t>
+          <t>25_0_brightness22.0_sharpness0.03_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1564,16 +1556,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.2271371571446696</v>
+        <v>1.001805939625431</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1581,7 +1573,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10.01061481749004</v>
+        <v>12.48354056028916</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1598,7 +1590,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_sharpness0.23_equalization10.0.jpg</t>
+          <t>26_0_gamma1.0_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1608,39 +1600,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.196537305688036</v>
+        <v>0.6148064632173655</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7946089807080534</v>
+        <v>0.9939093312845317</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9248168711085397</v>
+        <v>30.42772011740694</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_S_brightness5.2_sharpness0.79_contrast0.92.jpg</t>
+          <t>27_Q_gamma0.61_contrast0.99_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1650,16 +1642,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7874331511859799</v>
+        <v>0.7534271952220015</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1667,22 +1659,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.024510242760928</v>
+        <v>0.9614481866389436</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9.583202251169752</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_0_sharpness0.79_contrast1.0_brightness9.6.jpg</t>
+          <t>28_I_gamma0.75_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1686,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1701,15 +1695,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.7153192767198941</v>
+        <v>0.5456977451655396</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>24.56108011088442</v>
+        <v>10.73794032192318</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1726,7 +1720,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_Q_gamma0.72_equalization25.0.jpg</t>
+          <t>29_C_gamma0.55_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1730,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1745,30 +1739,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.003061338930882</v>
+        <v>0.9668803524451195</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9856748773812057</v>
+        <v>0.9880091241523976</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.9502691772198383</v>
+        <v>12.96213922903869</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_T_contrast1.0_sharpness0.99_gamma0.95.jpg</t>
+          <t>30_9_contrast0.97_gamma0.99_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1778,39 +1772,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.08701846032744165</v>
+        <v>0.819062996684624</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.191934049867024</v>
+        <v>26.87967624203315</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6.562558575364649</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_1_sharpness0.087_contrast1.2_equalization6.6.jpg</t>
+          <t>31_2_contrast0.82_brightness27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1820,41 +1816,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9453742068528466</v>
+        <v>0.2732108993434855</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9.829082933661745</v>
+        <v>1.041027035685625</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>20.06429581379717</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_8_gamma0.95_equalization9.8.jpg</t>
+          <t>32_S_sharpness0.27_contrast1.0_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1858,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1873,15 +1867,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9762052373520038</v>
+        <v>0.958803464188855</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5820161871738948</v>
+        <v>0.5434187404894568</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1889,14 +1883,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>9.666336881523053</v>
+        <v>29.48806449916004</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_contrast0.98_gamma0.58_equalization9.7.jpg</t>
+          <t>33_8_contrast0.96_sharpness0.54_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1906,24 +1900,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>24.38649427611557</v>
+        <v>0.5282378225040065</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8896074273647104</v>
+        <v>17.36380170268287</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1936,11 +1930,11 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_I_brightness24.0_contrast0.89.jpg</t>
+          <t>34_E_gamma0.53_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1944,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1959,15 +1953,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10.94498012825756</v>
+        <v>2.479604845733112</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.763442380456389</v>
+        <v>1.015907480654425</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1984,7 +1978,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_brightness11.0_gamma0.76.jpg</t>
+          <t>35_0_brightness2.5_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1994,39 +1988,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8940974530371366</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>15.48100113521515</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0.9582614025544057</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.8501680022040551</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H37" t="n">
-        <v>13.84251801807845</v>
+        <v>0.8435598047440813</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_gamma0.96_contrast0.85_equalization14.0.jpg</t>
+          <t>36_8_sharpness0.89_brightness15.0_gamma0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2036,39 +2030,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6129345693701952</v>
+        <v>0.552871666407765</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8758955934314564</v>
+        <v>11.74833700699609</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>24.28572030656722</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_8_gamma0.61_sharpness0.88_equalization24.0.jpg</t>
+          <t>37_3_sharpness0.55_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2074,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2087,30 +2083,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8340066350463494</v>
+        <v>0.7745731956919908</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>21.55806901395427</v>
+        <v>0.8105560014797399</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.2430331429526755</v>
+        <v>26.74418287019225</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_T_gamma0.83_brightness22.0_sharpness0.24.jpg</t>
+          <t>38_I_gamma0.77_contrast0.81_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2120,39 +2116,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13.00150165694884</v>
+        <v>0.9144983931660077</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9031719934837812</v>
+        <v>7.147643140132967</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>0.8762578779972389</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_7_brightness13.0_gamma0.9_contrast0.88.jpg</t>
+          <t>39_P_contrast0.91_equalization7.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2162,41 +2160,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>26.56532973462852</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.18007407863231</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>1.07384524126607</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1843435622105373</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H41" t="n">
+        <v>0.8394386122246149</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_S_gamma1.1_sharpness0.18.jpg</t>
+          <t>40_3_brightness27.0_contrast1.2_gamma0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2206,39 +2202,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9.189577908434941</v>
+        <v>0.9905083933860827</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9595155954566209</v>
+        <v>15.50861711218434</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>0.7854995066079541</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_C_brightness9.2_contrast0.96_sharpness0.79.jpg</t>
+          <t>41_8_contrast0.99_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2248,39 +2246,41 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.7684326229036</v>
+        <v>0.9393572630529763</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8622607221245753</v>
+        <v>31.19439509796348</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1.073620234542134</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_J_brightness2.8_gamma0.86_contrast1.1.jpg</t>
+          <t>42_9_gamma0.94_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2290,39 +2290,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1.054312287591705</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>0.214978266562365</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F44" t="n">
-        <v>4.477923953606041</v>
+        <v>0.7478888512203026</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.9322530478695266</v>
+        <v>28.27278892359779</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_Q_sharpness0.21_brightness4.5_contrast0.93.jpg</t>
+          <t>43_T_contrast1.1_sharpness0.75_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2341,15 +2341,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.809508706695538</v>
+        <v>1.098141060860386</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.2785315866217839</v>
+        <v>17.54857914104146</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2362,11 +2362,11 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_8_contrast0.81_sharpness0.28.jpg</t>
+          <t>44_I_contrast1.1_brightness18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2385,30 +2385,32 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5114538440166267</v>
+        <v>0.6215574972858828</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9541518288615533</v>
+        <v>9.545954887000853</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>7.507414598129392</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_3_sharpness0.51_gamma0.95_equalization7.5.jpg</t>
+          <t>45_T_sharpness0.62_equalization9.5.jpg</t>
         </is>
       </c>
     </row>
@@ -2423,11 +2425,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.429227037741989</v>
+        <v>0.4064002173739955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2435,24 +2437,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8530358975251244</v>
+        <v>0.6076478840789747</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>15.1295377343956</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_3_brightness1.4_gamma0.85.jpg</t>
+          <t>46_3_sharpness0.41_gamma0.61_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2462,39 +2462,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.034222049118494</v>
+        <v>10.02848223760713</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.109059450409146</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>1.033902390470371</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="H48" t="n">
-        <v>24.22662254721783</v>
+        <v>0.5136667971914834</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_S_contrast1.0_gamma1.0_brightness24.0.jpg</t>
+          <t>47_3_brightness10.0_contrast1.1_gamma0.51.jpg</t>
         </is>
       </c>
     </row>
@@ -2504,24 +2504,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29.27942352071186</v>
+        <v>0.8443066651077852</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.050451255195304</v>
+        <v>15.20066158329834</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2534,11 +2534,11 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_1_brightness29.0_gamma1.1.jpg</t>
+          <t>48_C_gamma0.84_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
